--- a/data/trans_media/Q57-Edad-trans_media.xlsx
+++ b/data/trans_media/Q57-Edad-trans_media.xlsx
@@ -639,22 +639,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 8,42</t>
+          <t>8,19; 8,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 9,08</t>
+          <t>8,71; 9,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 8,33</t>
+          <t>8,08; 8,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 8,81</t>
+          <t>8,35; 8,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 8,88</t>
+          <t>8,61; 8,89</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 8,04</t>
+          <t>7,83; 8,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 8,58</t>
+          <t>8,21; 8,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 8,12</t>
+          <t>7,91; 8,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 8,56</t>
+          <t>8,27; 8,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 8,05</t>
+          <t>7,91; 8,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 8,52</t>
+          <t>8,29; 8,53</t>
         </is>
       </c>
     </row>
@@ -804,27 +804,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 8,53</t>
+          <t>8,23; 8,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 7,94</t>
+          <t>7,72; 7,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 8,46</t>
+          <t>8,24; 8,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,93</t>
+          <t>7,78; 7,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 8,45</t>
+          <t>8,27; 8,46</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,6</t>
+          <t>7,32; 7,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 8,42</t>
+          <t>8,08; 8,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,17 +894,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 8,06</t>
+          <t>7,85; 8,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,53</t>
+          <t>7,34; 7,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,99; 8,19</t>
+          <t>7,99; 8,2</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,81</t>
+          <t>7,52; 7,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,23</t>
+          <t>6,93; 7,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,6</t>
+          <t>7,37; 7,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,42</t>
+          <t>7,21; 7,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 7,67</t>
+          <t>7,48; 7,68</t>
         </is>
       </c>
     </row>
@@ -1039,22 +1039,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,27</t>
+          <t>7,01; 7,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,57; 7,79</t>
+          <t>7,57; 7,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 6,76</t>
+          <t>6,43; 6,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,33</t>
+          <t>7,13; 7,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,49</t>
+          <t>7,3; 7,49</t>
         </is>
       </c>
     </row>
@@ -1129,17 +1129,17 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,51</t>
+          <t>7,39; 7,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,78; 7,93</t>
+          <t>7,79; 7,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,6</t>
+          <t>7,53; 7,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_media/Q57-Edad-trans_media.xlsx
+++ b/data/trans_media/Q57-Edad-trans_media.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 8,41</t>
+          <t>8,2; 8,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 8,34</t>
+          <t>8,18; 8,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 8,05</t>
+          <t>7,9; 8,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 7,99</t>
+          <t>7,75; 8,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 7,94</t>
+          <t>7,73; 7,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 7,94</t>
+          <t>7,77; 7,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,6</t>
+          <t>7,31; 7,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,51</t>
+          <t>7,25; 7,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,52</t>
+          <t>7,32; 7,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,7</t>
+          <t>7,42; 7,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,23</t>
+          <t>6,92; 7,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,43</t>
+          <t>7,2; 7,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,27</t>
+          <t>6,98; 7,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,72; 6,94</t>
+          <t>6,73; 6,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,5</t>
+          <t>7,39; 7,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,61</t>
+          <t>7,52; 7,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
